--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D23CA-D1EB-45D2-886F-EB8599C822CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9474CA-9C17-49DA-9271-0A03BD8C00AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Location</t>
   </si>
@@ -40,31 +40,16 @@
     <t>Brighton</t>
   </si>
   <si>
-    <t>Royal Brighton Yacht Club  253 Esplanade, Brighton VIC 3186</t>
-  </si>
-  <si>
-    <t>29/12/20 12:00pm-2:00pm</t>
-  </si>
-  <si>
-    <t>Case dined in outdoor restaurant</t>
+    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+  </si>
+  <si>
+    <t>24/12/2020 10:00am-11:05am</t>
+  </si>
+  <si>
+    <t>Case ate at restaurant</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>Royal Brighton Yacht Club - outdoor dining  253 Esplanade, Brighton VIC 3186</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
-  </si>
-  <si>
-    <t>24/12/2020 10:00am-11:05am</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant</t>
   </si>
   <si>
     <t>Cheltenham</t>
@@ -494,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -505,7 +490,7 @@
     <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -545,155 +530,121 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9474CA-9C17-49DA-9271-0A03BD8C00AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10730CD5-F421-40A0-99E4-A72FB3B8BFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -37,85 +37,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
-  </si>
-  <si>
-    <t>24/12/2020 10:00am-11:05am</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant</t>
+    <t>Glen Waverley</t>
+  </si>
+  <si>
+    <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
+  </si>
+  <si>
+    <t>28/12/20 2:45pm-5:30pm</t>
+  </si>
+  <si>
+    <t>2:45pm showing of Wonder Woman 1984 (Gold Class)</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
-  </si>
-  <si>
-    <t>29/12/2020 02:00pm-02:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>Lakes Entrance</t>
-  </si>
-  <si>
-    <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 09:30am-10:45am</t>
-  </si>
-  <si>
-    <t>Case ate in cafe</t>
-  </si>
-  <si>
-    <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 05:30pm-05:50pm</t>
-  </si>
-  <si>
-    <t>Case in hotel bar</t>
-  </si>
-  <si>
-    <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 03:30pm-04:30pm</t>
-  </si>
-  <si>
-    <t>Case visited pool area</t>
-  </si>
-  <si>
-    <t>Mentone</t>
-  </si>
-  <si>
-    <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
-  </si>
-  <si>
-    <t>29/12/2020 07:30am-08:00am</t>
-  </si>
-  <si>
-    <t>31/12/2020 08:00am-08:30am</t>
-  </si>
-  <si>
-    <t>Strathbogie</t>
-  </si>
-  <si>
-    <t>Wonga Estate Strathbogie Ranges 292 Brookleigh Road, Strathbogie VIC 3666</t>
-  </si>
-  <si>
-    <t>29/12/2020 01:00pm-02:00pm</t>
-  </si>
-  <si>
-    <t>Case visited vineyard</t>
+    <t>Case attended Gold Class screening Wonder Woman 1984</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -479,18 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -530,121 +470,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10730CD5-F421-40A0-99E4-A72FB3B8BFFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C912BAD-2E90-4B45-81E8-5403E8FDB856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -37,22 +48,16 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Glen Waverley</t>
-  </si>
-  <si>
-    <t>Village Century City  285-287 Springvale Road, Glen Waverley VIC 3150</t>
-  </si>
-  <si>
-    <t>28/12/20 2:45pm-5:30pm</t>
-  </si>
-  <si>
-    <t>2:45pm showing of Wonder Woman 1984 (Gold Class)</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Case attended Gold Class screening Wonder Woman 1984</t>
+    <t>Black Rock</t>
+  </si>
+  <si>
+    <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
+  </si>
+  <si>
+    <t>21/12/20 7:30pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Case dined in restaurant</t>
   </si>
   <si>
     <t>new</t>
@@ -74,7 +79,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,18 +423,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.9296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,23 +471,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C912BAD-2E90-4B45-81E8-5403E8FDB856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91843BAE-7B2F-46D5-91F2-31373E3AA2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Location</t>
   </si>
@@ -54,13 +43,34 @@
     <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
   </si>
   <si>
-    <t>21/12/20 7:30pm-9:30pm</t>
-  </si>
-  <si>
-    <t>Case dined in restaurant</t>
+    <t>27/12/20 7.30pm - 9pm</t>
+  </si>
+  <si>
+    <t>Case dined for dinner</t>
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+  </si>
+  <si>
+    <t>25/12/20 12pm - 3pm</t>
+  </si>
+  <si>
+    <t>Case ate in store</t>
+  </si>
+  <si>
+    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+  </si>
+  <si>
+    <t>28/12/2020 10pm - 12.30am</t>
+  </si>
+  <si>
+    <t>Case attended Venue</t>
   </si>
 </sst>
 </file>
@@ -79,6 +89,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,17 +434,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -471,6 +483,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91843BAE-7B2F-46D5-91F2-31373E3AA2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50553187-DBB2-43B5-AC85-7E303C555F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Location</t>
   </si>
@@ -37,16 +48,16 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Black Rock</t>
-  </si>
-  <si>
-    <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
-  </si>
-  <si>
-    <t>27/12/20 7.30pm - 9pm</t>
-  </si>
-  <si>
-    <t>Case dined for dinner</t>
+    <t>McKinnon</t>
+  </si>
+  <si>
+    <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
+  </si>
+  <si>
+    <t>23/12/20 4:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>Case had hair cut in store</t>
   </si>
   <si>
     <t>new</t>
@@ -55,15 +66,6 @@
     <t>Melbourne</t>
   </si>
   <si>
-    <t>Left Bank Melbourne, 1 Southbank Blvd</t>
-  </si>
-  <si>
-    <t>25/12/20 12pm - 3pm</t>
-  </si>
-  <si>
-    <t>Case ate in store</t>
-  </si>
-  <si>
     <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
   </si>
   <si>
@@ -71,6 +73,21 @@
   </si>
   <si>
     <t>Case attended Venue</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Southbank</t>
+  </si>
+  <si>
+    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+  </si>
+  <si>
+    <t>23/12/20 8:00pm-11:00pm</t>
+  </si>
+  <si>
+    <t>Case attended restaurant</t>
   </si>
 </sst>
 </file>
@@ -437,15 +454,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,21 +514,21 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50553187-DBB2-43B5-AC85-7E303C555F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECB3AA-5CA3-46B6-A4ED-3F9A7C36ED6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Location</t>
   </si>
@@ -48,46 +48,31 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>McKinnon</t>
-  </si>
-  <si>
-    <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
-  </si>
-  <si>
-    <t>23/12/20 4:00pm-6:00pm</t>
-  </si>
-  <si>
-    <t>Case had hair cut in store</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+  </si>
+  <si>
+    <t>28/12/2020 10:30pm-12.00am</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
-  </si>
-  <si>
-    <t>28/12/2020 10pm - 12.30am</t>
-  </si>
-  <si>
-    <t>Case attended Venue</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Southbank</t>
-  </si>
-  <si>
-    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
-  </si>
-  <si>
-    <t>23/12/20 8:00pm-11:00pm</t>
-  </si>
-  <si>
-    <t>Case attended restaurant</t>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+  </si>
+  <si>
+    <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+  </si>
+  <si>
+    <t>Case's workplace</t>
   </si>
 </sst>
 </file>
@@ -451,18 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,23 +499,6 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECB3AA-5CA3-46B6-A4ED-3F9A7C36ED6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D48AA4-51A7-44BC-AA2D-7433B3CEAB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Location</t>
   </si>
@@ -48,31 +48,37 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Camberwell</t>
+  </si>
+  <si>
+    <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
+  </si>
+  <si>
+    <t>29/12/20 12:30pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case ate at restaurant</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>Melbourne</t>
   </si>
   <si>
     <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
   </si>
   <si>
+    <t>28/12/2020 10:00pm-12.00am</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
     <t>28/12/2020 10:30pm-12.00am</t>
   </si>
   <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Moorabbin</t>
-  </si>
-  <si>
-    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
-  </si>
-  <si>
-    <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
-  </si>
-  <si>
-    <t>Case's workplace</t>
+    <t>old</t>
   </si>
 </sst>
 </file>
@@ -436,18 +442,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,6 +508,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D48AA4-51A7-44BC-AA2D-7433B3CEAB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3211D36-B8AB-4BB4-8782-3F750D18EE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28808" yWindow="5190" windowWidth="28816" windowHeight="5197" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Location</t>
   </si>
@@ -48,37 +37,82 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Camberwell</t>
-  </si>
-  <si>
-    <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
-  </si>
-  <si>
-    <t>29/12/20 12:30pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant</t>
+    <t>Abbotsford</t>
+  </si>
+  <si>
+    <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
+  </si>
+  <si>
+    <t>28/12/20 2:50pm-5:30pm</t>
+  </si>
+  <si>
+    <t>Case dined at venue</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
-  </si>
-  <si>
-    <t>28/12/2020 10:00pm-12.00am</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>28/12/2020 10:30pm-12.00am</t>
+    <t>Black Rock</t>
+  </si>
+  <si>
+    <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
+  </si>
+  <si>
+    <t>21/12/20 6:30pm-9:40pm</t>
+  </si>
+  <si>
+    <t>Case dined in restaurant</t>
   </si>
   <si>
     <t>old</t>
+  </si>
+  <si>
+    <t>21/12/20 7:30pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+  </si>
+  <si>
+    <t>28-12-2020 1:30pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Case ate in store</t>
+  </si>
+  <si>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
+  </si>
+  <si>
+    <t>1/01/21 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
+  </si>
+  <si>
+    <t>30/12/20 5:30pm - 6.30pm</t>
+  </si>
+  <si>
+    <t>Case dined at cafe</t>
+  </si>
+  <si>
+    <t>IKEA Springvale, 917 Princes Hwy</t>
+  </si>
+  <si>
+    <t>29/12/20 5:30pm - 6.30pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store and dined at cafe</t>
   </si>
 </sst>
 </file>
@@ -442,18 +476,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -516,13 +550,81 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3211D36-B8AB-4BB4-8782-3F750D18EE6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF073B7F-A586-4FD4-BAB4-00C8EAFE64D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28808" yWindow="5190" windowWidth="28816" windowHeight="5197" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -37,82 +37,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Abbotsford</t>
-  </si>
-  <si>
-    <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
-  </si>
-  <si>
-    <t>28/12/20 2:50pm-5:30pm</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Nandos  27 Elizabeth Street, Melbourne</t>
+  </si>
+  <si>
+    <t>01/01/2021 2:00am - 2:30am</t>
   </si>
   <si>
     <t>Case dined at venue</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>Black Rock</t>
-  </si>
-  <si>
-    <t>Smile Buffalo Thai restaurant  305 Beach Road, Black Rock VIC 3193</t>
-  </si>
-  <si>
-    <t>21/12/20 6:30pm-9:40pm</t>
-  </si>
-  <si>
-    <t>Case dined in restaurant</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>21/12/20 7:30pm-9:30pm</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
-  </si>
-  <si>
-    <t>28-12-2020 1:30pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Case ate in store</t>
-  </si>
-  <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
-  </si>
-  <si>
-    <t>1/01/21 3:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>Springvale</t>
-  </si>
-  <si>
-    <t>IKEA Springvale - Cafe and Restaurant, 917 Princes Hwy</t>
-  </si>
-  <si>
-    <t>30/12/20 5:30pm - 6.30pm</t>
-  </si>
-  <si>
-    <t>Case dined at cafe</t>
-  </si>
-  <si>
-    <t>IKEA Springvale, 917 Princes Hwy</t>
-  </si>
-  <si>
-    <t>29/12/20 5:30pm - 6.30pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store and dined at cafe</t>
   </si>
 </sst>
 </file>
@@ -476,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -484,10 +421,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,108 +462,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF073B7F-A586-4FD4-BAB4-00C8EAFE64D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD76869-141A-4DD6-8DEE-BF5690980888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Location</t>
   </si>
@@ -37,19 +37,52 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Nandos  27 Elizabeth Street, Melbourne</t>
-  </si>
-  <si>
-    <t>01/01/2021 2:00am - 2:30am</t>
-  </si>
-  <si>
-    <t>Case dined at venue</t>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Two Bob Snob, 256 Charman Road</t>
+  </si>
+  <si>
+    <t>22/12/20 1:00pm-2:00pm</t>
+  </si>
+  <si>
+    <t>Case attended Venue</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+  </si>
+  <si>
+    <t>21/12/20 2:00pm-10:00pm  22/12/20 10:00am-6:00pm  24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
+  </si>
+  <si>
+    <t>Case's workplace</t>
+  </si>
+  <si>
+    <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>Southbank</t>
+  </si>
+  <si>
+    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+  </si>
+  <si>
+    <t>23/12/20 8:00pm-11:00pm</t>
+  </si>
+  <si>
+    <t>Case ate in store</t>
+  </si>
+  <si>
+    <t>Case attended restaurant</t>
   </si>
 </sst>
 </file>
@@ -413,18 +446,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,6 +495,74 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD76869-141A-4DD6-8DEE-BF5690980888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA75130D-98E8-4BE1-BF7C-827FD368F38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Location</t>
   </si>
@@ -37,37 +37,64 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Two Bob Snob, 256 Charman Road</t>
-  </si>
-  <si>
-    <t>22/12/20 1:00pm-2:00pm</t>
-  </si>
-  <si>
-    <t>Case attended Venue</t>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+  </si>
+  <si>
+    <t>28/12/20 12:50pm-2:40pm</t>
+  </si>
+  <si>
+    <t>Case ate in store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>28/12/20 1:30pm-2:30pm</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Moorabbin</t>
-  </si>
-  <si>
-    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
-  </si>
-  <si>
-    <t>21/12/20 2:00pm-10:00pm  22/12/20 10:00am-6:00pm  24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
-  </si>
-  <si>
-    <t>Case's workplace</t>
-  </si>
-  <si>
-    <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>McKinnon</t>
+  </si>
+  <si>
+    <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
+  </si>
+  <si>
+    <t>23/12/20 4:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>Case had hair cut in store</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Left Bank Melbourne Restaurant and Cocktail Bar, 1 Southbank Blvd</t>
+  </si>
+  <si>
+    <t>25/12/20 12:00pm-3:00pm</t>
+  </si>
+  <si>
+    <t>Case attended bar</t>
+  </si>
+  <si>
+    <t>Left Bank Melbourne, 1 Southbank Blvd</t>
+  </si>
+  <si>
+    <t>Mordialloc</t>
+  </si>
+  <si>
+    <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
+  </si>
+  <si>
+    <t>23/12/20 12:30pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case attended club house bar</t>
   </si>
   <si>
     <t>Southbank</t>
@@ -77,12 +104,6 @@
   </si>
   <si>
     <t>23/12/20 8:00pm-11:00pm</t>
-  </si>
-  <si>
-    <t>Case ate in store</t>
-  </si>
-  <si>
-    <t>Case attended restaurant</t>
   </si>
 </sst>
 </file>
@@ -446,18 +467,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -497,36 +518,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -543,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -551,16 +572,50 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA75130D-98E8-4BE1-BF7C-827FD368F38E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16261AE9-A22B-4E8D-8849-417E002CA681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -37,73 +37,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
-  </si>
-  <si>
-    <t>28/12/20 12:50pm-2:40pm</t>
-  </si>
-  <si>
-    <t>Case ate in store</t>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
+  </si>
+  <si>
+    <t>1/01/21 3:00pm-5:00pm</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>1/01/21 3:00pm-6:00pm</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>28/12/20 1:30pm-2:30pm</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>McKinnon</t>
-  </si>
-  <si>
-    <t>Hotlocks By Rachael Hairdresser, 260 McKinnon Road, McKinnon VIC 3204</t>
-  </si>
-  <si>
-    <t>23/12/20 4:00pm-6:00pm</t>
-  </si>
-  <si>
-    <t>Case had hair cut in store</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Left Bank Melbourne Restaurant and Cocktail Bar, 1 Southbank Blvd</t>
-  </si>
-  <si>
-    <t>25/12/20 12:00pm-3:00pm</t>
-  </si>
-  <si>
-    <t>Case attended bar</t>
-  </si>
-  <si>
-    <t>Left Bank Melbourne, 1 Southbank Blvd</t>
-  </si>
-  <si>
-    <t>Mordialloc</t>
-  </si>
-  <si>
-    <t>Woodlands Golf Club - club bar  109 White Street Mordialloc VIC 3195</t>
-  </si>
-  <si>
-    <t>23/12/20 12:30pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case attended club house bar</t>
-  </si>
-  <si>
-    <t>Southbank</t>
-  </si>
-  <si>
-    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
-  </si>
-  <si>
-    <t>23/12/20 8:00pm-11:00pm</t>
   </si>
 </sst>
 </file>
@@ -122,7 +74,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,18 +418,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,91 +484,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16261AE9-A22B-4E8D-8849-417E002CA681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057FC0D1-5205-48E1-89A7-55709B1B6199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,22 +37,22 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Sikh Temple Keysborough, 198-206 Perry Road, Keysborough</t>
-  </si>
-  <si>
-    <t>1/01/21 3:00pm-5:00pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+  </si>
+  <si>
+    <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
+  </si>
+  <si>
+    <t>Case's workplace</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>1/01/21 3:00pm-6:00pm</t>
+    <t>28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
   </si>
   <si>
     <t>new</t>
@@ -426,10 +426,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057FC0D1-5205-48E1-89A7-55709B1B6199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Exposure period</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Exist</t>
-  </si>
-  <si>
-    <t>Moorabbin</t>
-  </si>
-  <si>
-    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
-  </si>
-  <si>
-    <t>24/12/20 1:00pm-10:00pm  28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
-  </si>
-  <si>
-    <t>Case's workplace</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>28/12/20 8.05pm-8.47pm  29/12/20 12:00pm-4:00pm</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -112,24 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -417,71 +353,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exposure period</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Exist</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Maidstone</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>09:45-10:25  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>17:50-18:30  5/2/2021</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sunshine</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18:50-19:30  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Taylors Lakes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13:17-13:52  6/2/2021</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Case attended venue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1CFF8-A899-4AC9-BD92-C173765B3861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Exposure period</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Taylors Lakes</t>
+  </si>
+  <si>
+    <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+  </si>
+  <si>
+    <t>13:00-13:52  6/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>13:17-13:52  6/2/2021</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +93,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,15 +112,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,152 +417,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Exposure period</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Exist</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Maidstone</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>09:45-10:25  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17:50-18:30  5/2/2021</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sunshine</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:50-19:30  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Taylors Lakes</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13:17-13:52  6/2/2021</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Case attended venue</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F1CFF8-A899-4AC9-BD92-C173765B3861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A698A430-DE10-436D-934D-3BE6AB16A511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -37,13 +48,13 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Taylors Lakes</t>
-  </si>
-  <si>
-    <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
-  </si>
-  <si>
-    <t>13:00-13:52  6/2/2021</t>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Aldente Deli - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>15:45-16:23  5/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
@@ -52,10 +63,43 @@
     <t>new</t>
   </si>
   <si>
-    <t>13:17-13:52  6/2/2021</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>15:57-16:30  5/2/2021</t>
+  </si>
+  <si>
+    <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>15:40-16:15  5/2/2021</t>
+  </si>
+  <si>
+    <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>17:44-18:19  7/2/2021</t>
+  </si>
+  <si>
+    <t>18:17-19:02  6/2/2021</t>
+  </si>
+  <si>
+    <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>15:37-16:10  5/2/2021</t>
+  </si>
+  <si>
+    <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>16:30-18:30  6/2/2021</t>
+  </si>
+  <si>
+    <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>15:53-16:28  5/2/2021</t>
   </si>
 </sst>
 </file>
@@ -418,16 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
@@ -472,19 +516,122 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A698A430-DE10-436D-934D-3BE6AB16A511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27904E4-149C-4CF5-9B4F-DC0F21C4E23B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="101">
   <si>
     <t>Location</t>
   </si>
@@ -48,6 +37,177 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Brandon Park</t>
+  </si>
+  <si>
+    <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park, VIC 3170</t>
+  </si>
+  <si>
+    <t>16:35-17:10  31/1/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>4:35pm - 5:10pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>North Point Cafe  2B North Rd  Brighton, VIC 3186</t>
+  </si>
+  <si>
+    <t>08:10-09:30  31/1/2021</t>
+  </si>
+  <si>
+    <t>Case dined outside and used bathroom</t>
+  </si>
+  <si>
+    <t>8:10am - 9:30am  31/1/2021</t>
+  </si>
+  <si>
+    <t>Clayton South</t>
+  </si>
+  <si>
+    <t>Nakama Workshop  85 Main Rd  Clayton South, VIC 3169</t>
+  </si>
+  <si>
+    <t>11:15-12:00  1/2/2021</t>
+  </si>
+  <si>
+    <t>11:15am - 12:00pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Heatherton</t>
+  </si>
+  <si>
+    <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
+  </si>
+  <si>
+    <t>17:19-18:35  1/2/2021</t>
+  </si>
+  <si>
+    <t>5:19pm - 6:35pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
+  </si>
+  <si>
+    <t>10:00pm - 11:15pm  30/1/2021</t>
+  </si>
+  <si>
+    <t>22:00-23:15  30/1/2021</t>
+  </si>
+  <si>
+    <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
+  </si>
+  <si>
+    <t>16:00-17:00  31/1/2021</t>
+  </si>
+  <si>
+    <t>4:00pm - 5:00pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>Maidstone</t>
+  </si>
+  <si>
+    <t>Marciano's Cakes  126 Mitchell St  Maidstone VIC 3012</t>
+  </si>
+  <si>
+    <t>09:45-10:25  5/2/2021</t>
+  </si>
+  <si>
+    <t>9:45am - 10:25am  5/2/2021</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
+  </si>
+  <si>
+    <t>11:00pm - 11:35pm  29/1/2021</t>
+  </si>
+  <si>
+    <t>Case attended bottle shop</t>
+  </si>
+  <si>
+    <t>23:00-23:35  29/1/2021</t>
+  </si>
+  <si>
+    <t>Moorabbin Airport</t>
+  </si>
+  <si>
+    <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+  </si>
+  <si>
+    <t>17:00-17:45  1/2/2021</t>
+  </si>
+  <si>
+    <t>5:00pm - 5:45pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Noble Park</t>
+  </si>
+  <si>
+    <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+  </si>
+  <si>
+    <t>14:36-15:30  30/01/2021</t>
+  </si>
+  <si>
+    <t>2:36pm -3:30pm  30/01/2021</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+  </si>
+  <si>
+    <t>11:30-12:15  1/2/2021</t>
+  </si>
+  <si>
+    <t>11:30am - 12:15pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+  </si>
+  <si>
+    <t>17:00-18:00  31/1/2021</t>
+  </si>
+  <si>
+    <t>5:00pm - 6:00pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+  </si>
+  <si>
+    <t>18:50-19:30  1/2/2021</t>
+  </si>
+  <si>
+    <t>6:50pm - 7:30pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
+  </si>
+  <si>
+    <t>18:30-19:30  1/2/2021</t>
+  </si>
+  <si>
+    <t>6:30pm - 7:30pm  1/2/2021</t>
+  </si>
+  <si>
     <t>Sunbury</t>
   </si>
   <si>
@@ -57,10 +217,7 @@
     <t>15:45-16:23  5/2/2021</t>
   </si>
   <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>3:45pm - 4:23pm  5/2/2021</t>
   </si>
   <si>
     <t>Asian Star - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
@@ -69,12 +226,18 @@
     <t>15:57-16:30  5/2/2021</t>
   </si>
   <si>
+    <t>3:57pm - 4:30pm  5/2/2021</t>
+  </si>
+  <si>
     <t>Bakers Delight - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
   </si>
   <si>
     <t>15:40-16:15  5/2/2021</t>
   </si>
   <si>
+    <t>3:40pm - 4:15pm  5/2/2021</t>
+  </si>
+  <si>
     <t>Cellarbrations  34 Batman Avenue  Sunbury VIC 3429</t>
   </si>
   <si>
@@ -84,22 +247,82 @@
     <t>18:17-19:02  6/2/2021</t>
   </si>
   <si>
+    <t>5:44pm - 6:19pm  7/2/2021</t>
+  </si>
+  <si>
+    <t>6:17pm - 7:02pm  6/2/2021</t>
+  </si>
+  <si>
     <t>PJ's Pet Warehouse  Shop 2, 104 Horne Street  Sunbury VIC 3429</t>
   </si>
   <si>
     <t>15:37-16:10  5/2/2021</t>
   </si>
   <si>
+    <t>3:37pm - 4:10pm  5/2/2021</t>
+  </si>
+  <si>
     <t>Sunny Life Massage - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
   </si>
   <si>
     <t>16:30-18:30  6/2/2021</t>
   </si>
   <si>
+    <t>4:30pm - 6:30pm  6/2/2021</t>
+  </si>
+  <si>
     <t>Sushi Sushi - Sunbury Square Shopping Centre  2-28 Evans Street  Sunbury VIC 3429</t>
   </si>
   <si>
     <t>15:53-16:28  5/2/2021</t>
+  </si>
+  <si>
+    <t>3:53pm - 4:28pm  5/2/2021</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Dan Murphy's  47 McIntyre Rd  Sunshine VIC 3020</t>
+  </si>
+  <si>
+    <t>17:50-18:30  5/2/2021</t>
+  </si>
+  <si>
+    <t>18:50-19:30  6/2/2021</t>
+  </si>
+  <si>
+    <t>5:50pm - 6:30pm  5/2/2021</t>
+  </si>
+  <si>
+    <t>6:50pm - 7:30pm  6/2/2021</t>
+  </si>
+  <si>
+    <t>Taylors Lakes</t>
+  </si>
+  <si>
+    <t>Off Ya Tree Watergardens  399 Melton Highway  Taylors Lakes VIC 3038</t>
+  </si>
+  <si>
+    <t>13:00-13:52  6/2/2021</t>
+  </si>
+  <si>
+    <t>1:00pm - 1:52pm  6/2/2021</t>
+  </si>
+  <si>
+    <t>West Melbourne</t>
+  </si>
+  <si>
+    <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
+  </si>
+  <si>
+    <t>11:24pm -12:15am  29/1/2021</t>
+  </si>
+  <si>
+    <t>Case dined outside</t>
+  </si>
+  <si>
+    <t>23:24-00:15  29/1/2021</t>
   </si>
 </sst>
 </file>
@@ -462,19 +685,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -516,30 +738,30 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -547,30 +769,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -581,30 +803,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -615,23 +837,770 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A604B5AC-AC9E-4A6C-BA71-4051D14814B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2194AE-6779-4339-B763-49453546533C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -48,25 +48,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Glen Waverley</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
-  </si>
-  <si>
-    <t>1:30pm-2:45pm 9/2/2021</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Brunetti: Terminal 4, Melbourne Airport</t>
+  </si>
+  <si>
+    <t>4:45am - 1:15pm, 9/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>HSBC Bank, 38 Kingsway, Glen Waverley</t>
-  </si>
-  <si>
-    <t>2:15pm-3:30pm 9/2/2021</t>
   </si>
 </sst>
 </file>
@@ -85,6 +79,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -437,9 +432,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
@@ -478,23 +473,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2194AE-6779-4339-B763-49453546533C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59601981-8CCF-49F0-BD29-98DA40B8F376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Location</t>
   </si>
@@ -48,19 +37,34 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Glen Waverley</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
+  </si>
+  <si>
+    <t>1:30pm-2:15pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>1:30pm-2:30pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>Melbourne</t>
   </si>
   <si>
-    <t>Brunetti: Terminal 4, Melbourne Airport</t>
-  </si>
-  <si>
-    <t>4:45am - 1:15pm, 9/2/2021</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>Terminal 4, Melbourne Airport</t>
+  </si>
+  <si>
+    <t>4:45am - 2:00pm  9/2/2021</t>
   </si>
 </sst>
 </file>
@@ -79,7 +83,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -424,16 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
@@ -473,8 +476,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59601981-8CCF-49F0-BD29-98DA40B8F376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325EDBA-6417-477A-8006-A8C6AE20F843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Location</t>
   </si>
@@ -37,34 +48,91 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Glen Waverley</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
-  </si>
-  <si>
-    <t>1:30pm-2:15pm 9/2/2021</t>
+    <t>Broadmeadows</t>
+  </si>
+  <si>
+    <t>Craigieburn Line train</t>
+  </si>
+  <si>
+    <t>1.25pm - 1.59pm  9/02/2012</t>
+  </si>
+  <si>
+    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Coburg</t>
+  </si>
+  <si>
+    <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
+  </si>
+  <si>
+    <t>7:14pm  11:30pm  6/02/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
   </si>
   <si>
+    <t>Glenroy</t>
+  </si>
+  <si>
+    <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
+  </si>
+  <si>
+    <t>1.35pm  2.17pm  9/02/2021</t>
+  </si>
+  <si>
+    <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
+  </si>
+  <si>
+    <t>Hoppers Crossing</t>
+  </si>
+  <si>
+    <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing, VIC 3029</t>
+  </si>
+  <si>
+    <t>6.40am - 7.15am  8/02/21</t>
+  </si>
+  <si>
+    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing, VIC 3029</t>
+  </si>
+  <si>
+    <t>6.45am - 7.30am  8/02/21</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
+  </si>
+  <si>
+    <t>1:02pm  1:49pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>Case caught but from Melbourne Airport to Broadmeadows Railway Station</t>
+  </si>
+  <si>
+    <t>Brunetti: Terminal 4, Melbourne Airport</t>
+  </si>
+  <si>
+    <t>4:45am - 1:15pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>4:45am - 1:15pm, 9/2/2021</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>1:30pm-2:30pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Terminal 4, Melbourne Airport</t>
-  </si>
-  <si>
-    <t>4:45am - 2:00pm  9/2/2021</t>
+    <t>South Melbourne</t>
+  </si>
+  <si>
+    <t>Stowe Australia  67  69 Buckhurst St  South Melbourne VIC 3205</t>
+  </si>
+  <si>
+    <t>10.30am - 10.45am 8/02/2021</t>
   </si>
 </sst>
 </file>
@@ -427,18 +495,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.796875" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -478,39 +546,139 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325EDBA-6417-477A-8006-A8C6AE20F843}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774804D-9AA6-46BB-A9CD-322E06211A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Location</t>
   </si>
@@ -48,84 +48,36 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Broadmeadows</t>
-  </si>
-  <si>
-    <t>Craigieburn Line train</t>
-  </si>
-  <si>
-    <t>1.25pm - 1.59pm  9/02/2012</t>
-  </si>
-  <si>
-    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
+  </si>
+  <si>
+    <t>1:02pm  1:49pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Coburg</t>
-  </si>
-  <si>
-    <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
-  </si>
-  <si>
-    <t>7:14pm  11:30pm  6/02/2021</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>Glenroy</t>
-  </si>
-  <si>
-    <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
-  </si>
-  <si>
-    <t>1.35pm  2.17pm  9/02/2021</t>
-  </si>
-  <si>
-    <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
-  </si>
-  <si>
-    <t>Hoppers Crossing</t>
-  </si>
-  <si>
-    <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing, VIC 3029</t>
-  </si>
-  <si>
-    <t>6.40am - 7.15am  8/02/21</t>
-  </si>
-  <si>
-    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing, VIC 3029</t>
-  </si>
-  <si>
-    <t>6.45am - 7.30am  8/02/21</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
-  </si>
-  <si>
-    <t>1:02pm  1:49pm  9/2/2021</t>
-  </si>
-  <si>
     <t>Case caught but from Melbourne Airport to Broadmeadows Railway Station</t>
   </si>
   <si>
-    <t>Brunetti: Terminal 4, Melbourne Airport</t>
-  </si>
-  <si>
-    <t>4:45am - 1:15pm  9/2/2021</t>
-  </si>
-  <si>
-    <t>4:45am - 1:15pm, 9/2/2021</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
+    <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
+  </si>
+  <si>
+    <t>11:00pm - 11:35pm  29/1/2021</t>
+  </si>
+  <si>
+    <t>Case attended bottle shop</t>
+  </si>
+  <si>
     <t>South Melbourne</t>
   </si>
   <si>
@@ -133,6 +85,18 @@
   </si>
   <si>
     <t>10.30am - 10.45am 8/02/2021</t>
+  </si>
+  <si>
+    <t>West Melbourne</t>
+  </si>
+  <si>
+    <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
+  </si>
+  <si>
+    <t>11:24pm -12:15am  29/1/2021</t>
+  </si>
+  <si>
+    <t>Case dined outside</t>
   </si>
 </sst>
 </file>
@@ -151,6 +115,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -495,18 +460,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.796875" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,53 +511,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -600,85 +562,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774804D-9AA6-46BB-A9CD-322E06211A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB017CA-60F5-4458-9A9A-9C2EAF872880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>Location</t>
   </si>
@@ -48,55 +48,166 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
-  </si>
-  <si>
-    <t>1:02pm  1:49pm  9/2/2021</t>
-  </si>
-  <si>
-    <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+    <t>Albert Park</t>
+  </si>
+  <si>
+    <t>Alberton Cafe  198 Bridport St  Albert Park VIC 3206</t>
+  </si>
+  <si>
+    <t>8:50am - 10:10am  9/2/2021</t>
+  </si>
+  <si>
+    <t>Case dined at venue</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Case caught but from Melbourne Airport to Broadmeadows Railway Station</t>
+    <t>9:00am - 10:50am  11/2/2021</t>
+  </si>
+  <si>
+    <t>Brandon Park</t>
+  </si>
+  <si>
+    <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park VIC 3170</t>
+  </si>
+  <si>
+    <t>4:35pm - 5:10pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park, VIC 3170</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Exford Hotel  199 Russell St  Melbourne, VIC 3000</t>
-  </si>
-  <si>
-    <t>11:00pm - 11:35pm  29/1/2021</t>
-  </si>
-  <si>
-    <t>Case attended bottle shop</t>
-  </si>
-  <si>
-    <t>South Melbourne</t>
-  </si>
-  <si>
-    <t>Stowe Australia  67  69 Buckhurst St  South Melbourne VIC 3205</t>
-  </si>
-  <si>
-    <t>10.30am - 10.45am 8/02/2021</t>
-  </si>
-  <si>
-    <t>West Melbourne</t>
-  </si>
-  <si>
-    <t>Kebab Kingz  438 Spencer St  West Melbourne, VIC 3003</t>
-  </si>
-  <si>
-    <t>11:24pm -12:15am  29/1/2021</t>
-  </si>
-  <si>
-    <t>Case dined outside</t>
+    <t>Clayton South</t>
+  </si>
+  <si>
+    <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
+  </si>
+  <si>
+    <t>11:15am - 12:00pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Nakama Workshop  85 Main Rd  Clayton South, VIC 3169</t>
+  </si>
+  <si>
+    <t>Glen Waverley</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
+  </si>
+  <si>
+    <t>1:30pm-2:30pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
+  </si>
+  <si>
+    <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
+  </si>
+  <si>
+    <t>2:15pm-3:30pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>HSBC Bank, 38 Kingsway, Glen Waverley</t>
+  </si>
+  <si>
+    <t>Hoppers Crossing</t>
+  </si>
+  <si>
+    <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
+  </si>
+  <si>
+    <t>6.40am - 7.15am  8/02/21</t>
+  </si>
+  <si>
+    <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing, VIC 3029</t>
+  </si>
+  <si>
+    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
+  </si>
+  <si>
+    <t>6.45am - 7.30am  8/02/21</t>
+  </si>
+  <si>
+    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing, VIC 3029</t>
+  </si>
+  <si>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough VIC 3173</t>
+  </si>
+  <si>
+    <t>10:00pm - 11:15pm  30/1/2021</t>
+  </si>
+  <si>
+    <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
+  </si>
+  <si>
+    <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
+  </si>
+  <si>
+    <t>4:00pm - 5:00pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
+  </si>
+  <si>
+    <t>Point Cook</t>
+  </si>
+  <si>
+    <t>The Coffeeologist Cafe  70/300 Point Cook Rd Point Cook VIC 3030</t>
+  </si>
+  <si>
+    <t>11:00am - 11:40am  8/2/2021</t>
+  </si>
+  <si>
+    <t>11:30am - 12:10pm  10/2/2021</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>11:30am - 12:15pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
+  </si>
+  <si>
+    <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>5:00pm - 6:00pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
+  </si>
+  <si>
+    <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>6:50pm - 7:30pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
+  </si>
+  <si>
+    <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>6:30pm - 7:30pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
   </si>
 </sst>
 </file>
@@ -460,18 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,18 +626,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -540,41 +649,436 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB017CA-60F5-4458-9A9A-9C2EAF872880}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79684058-6A19-439A-A329-89D629850E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>Location</t>
   </si>
@@ -54,7 +43,7 @@
     <t>Alberton Cafe  198 Bridport St  Albert Park VIC 3206</t>
   </si>
   <si>
-    <t>8:50am - 10:10am  9/2/2021</t>
+    <t>9:00am - 10:15am  11/2/2021</t>
   </si>
   <si>
     <t>Case dined at venue</t>
@@ -66,97 +55,40 @@
     <t>9:00am - 10:50am  11/2/2021</t>
   </si>
   <si>
-    <t>Brandon Park</t>
-  </si>
-  <si>
-    <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park VIC 3170</t>
-  </si>
-  <si>
-    <t>4:35pm - 5:10pm  31/1/2021</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
+  </si>
+  <si>
+    <t>1:02pm  1:49pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
+  </si>
+  <si>
+    <t>Brunetti: Terminal 4, Melbourne Airport</t>
+  </si>
+  <si>
+    <t>4:45am - 1:15pm  9/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
   </si>
   <si>
-    <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park, VIC 3170</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Clayton South</t>
-  </si>
-  <si>
-    <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
-  </si>
-  <si>
-    <t>11:15am - 12:00pm  1/2/2021</t>
-  </si>
-  <si>
-    <t>Nakama Workshop  85 Main Rd  Clayton South, VIC 3169</t>
-  </si>
-  <si>
-    <t>Glen Waverley</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
-  </si>
-  <si>
-    <t>1:30pm-2:30pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank, 28-32 Kingsway, Glen Waverley</t>
-  </si>
-  <si>
-    <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
-  </si>
-  <si>
-    <t>2:15pm-3:30pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>HSBC Bank, 38 Kingsway, Glen Waverley</t>
-  </si>
-  <si>
-    <t>Hoppers Crossing</t>
-  </si>
-  <si>
-    <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
-  </si>
-  <si>
-    <t>6.40am - 7.15am  8/02/21</t>
-  </si>
-  <si>
-    <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing, VIC 3029</t>
-  </si>
-  <si>
-    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
-  </si>
-  <si>
-    <t>6.45am - 7.30am  8/02/21</t>
-  </si>
-  <si>
-    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing, VIC 3029</t>
-  </si>
-  <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough VIC 3173</t>
-  </si>
-  <si>
-    <t>10:00pm - 11:15pm  30/1/2021</t>
-  </si>
-  <si>
-    <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough, VIC 3173</t>
-  </si>
-  <si>
-    <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
-  </si>
-  <si>
-    <t>4:00pm - 5:00pm  31/1/2021</t>
-  </si>
-  <si>
-    <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough, VIC 3173</t>
+    <t>Terminal 4, Melbourne Airport</t>
+  </si>
+  <si>
+    <t>4:45am - 2:00pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>Melbourne Airport</t>
+  </si>
+  <si>
+    <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
   </si>
   <si>
     <t>Point Cook</t>
@@ -169,45 +101,6 @@
   </si>
   <si>
     <t>11:30am - 12:10pm  10/2/2021</t>
-  </si>
-  <si>
-    <t>Springvale</t>
-  </si>
-  <si>
-    <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
-  </si>
-  <si>
-    <t>11:30am - 12:15pm  1/2/2021</t>
-  </si>
-  <si>
-    <t>Bunnings Springvale  849 Princes Hwy  Springvale, VIC 3171</t>
-  </si>
-  <si>
-    <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
-  </si>
-  <si>
-    <t>5:00pm - 6:00pm  31/1/2021</t>
-  </si>
-  <si>
-    <t>Coles Springvale  825 Dandenong Rd  Springvale, VIC 3171</t>
-  </si>
-  <si>
-    <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
-  </si>
-  <si>
-    <t>6:50pm - 7:30pm  1/2/2021</t>
-  </si>
-  <si>
-    <t>Sharetea Springvale  27C Buckingham Ave  Springvale, VIC 3171</t>
-  </si>
-  <si>
-    <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
-  </si>
-  <si>
-    <t>6:30pm - 7:30pm  1/2/2021</t>
-  </si>
-  <si>
-    <t>Woolworths Springvale  302 Springvale Rd  Springvale, VIC 3171</t>
   </si>
 </sst>
 </file>
@@ -571,16 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.06640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -632,75 +527,75 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -708,13 +603,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -725,360 +620,53 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79684058-6A19-439A-A329-89D629850E0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAA5EEA-1024-4113-A3E7-F1A3B8FB0267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Location</t>
   </si>
@@ -37,70 +48,73 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Albert Park</t>
-  </si>
-  <si>
-    <t>Alberton Cafe  198 Bridport St  Albert Park VIC 3206</t>
-  </si>
-  <si>
-    <t>9:00am - 10:15am  11/2/2021</t>
-  </si>
-  <si>
-    <t>Case dined at venue</t>
+    <t>Broadmeadows</t>
+  </si>
+  <si>
+    <t>Craigieburn Line train</t>
+  </si>
+  <si>
+    <t>1.25pm - 1.59pm  9/02/2012</t>
+  </si>
+  <si>
+    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>1.25pm - 1.59pm  9/02/2021</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>9:00am - 10:50am  11/2/2021</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>901 Frankston to Melbourne Airport bus route  Melbourne Airport to Broadmeadows Railway Station</t>
-  </si>
-  <si>
-    <t>1:02pm  1:49pm  9/2/2021</t>
-  </si>
-  <si>
-    <t>Case caught bus from Melbourne Airport to Broadmeadows Railway Station</t>
-  </si>
-  <si>
-    <t>Brunetti: Terminal 4, Melbourne Airport</t>
-  </si>
-  <si>
-    <t>4:45am - 1:15pm  9/2/2021</t>
+    <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
+  </si>
+  <si>
+    <t>12:30pm - 12:45pm 9/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
   </si>
   <si>
-    <t>Terminal 4, Melbourne Airport</t>
-  </si>
-  <si>
-    <t>4:45am - 2:00pm  9/2/2021</t>
-  </si>
-  <si>
-    <t>Melbourne Airport</t>
-  </si>
-  <si>
-    <t>901 Frankston to Melbourne Airport bus route:  Melbourne Airport to Broadmeadows Railway Station</t>
-  </si>
-  <si>
-    <t>Point Cook</t>
-  </si>
-  <si>
-    <t>The Coffeeologist Cafe  70/300 Point Cook Rd Point Cook VIC 3030</t>
-  </si>
-  <si>
-    <t>11:00am - 11:40am  8/2/2021</t>
-  </si>
-  <si>
-    <t>11:30am - 12:10pm  10/2/2021</t>
+    <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
+  </si>
+  <si>
+    <t>12.15pm - 12:30 pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough VIC 3173</t>
+  </si>
+  <si>
+    <t>10:00pm - 11:15pm  30/1/2021</t>
+  </si>
+  <si>
+    <t>Noble Park</t>
+  </si>
+  <si>
+    <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
+  </si>
+  <si>
+    <t>2:36pm -3:30pm  30/01/2021</t>
+  </si>
+  <si>
+    <t>Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
+  </si>
+  <si>
+    <t>5pm - 6pm 8/2/2021</t>
+  </si>
+  <si>
+    <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
+  </si>
+  <si>
+    <t>4pm - 7.30pm 10/2/2021</t>
   </si>
 </sst>
 </file>
@@ -119,7 +133,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -464,18 +477,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,16 +545,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -549,16 +562,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -566,33 +579,33 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -600,69 +613,35 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAA5EEA-1024-4113-A3E7-F1A3B8FB0267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE6541-931E-4E83-8098-283B3A8FE218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Location</t>
   </si>
@@ -48,73 +48,43 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Broadmeadows</t>
-  </si>
-  <si>
-    <t>Craigieburn Line train</t>
-  </si>
-  <si>
-    <t>1.25pm - 1.59pm  9/02/2012</t>
-  </si>
-  <si>
-    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>1.25pm - 1.59pm  9/02/2021</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>8:25am - 10:10am  11/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
-  </si>
-  <si>
-    <t>12:30pm - 12:45pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
-  </si>
-  <si>
-    <t>12.15pm - 12:30 pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Aces Sporting Club (Driving Range)  Cnr Springvale Rd and Hutton Rd  Keysborough VIC 3173</t>
-  </si>
-  <si>
-    <t>10:00pm - 11:15pm  30/1/2021</t>
-  </si>
-  <si>
-    <t>Noble Park</t>
-  </si>
-  <si>
-    <t>Club Noble  46/56 Moodemere St  Noble Park VIC 3174</t>
-  </si>
-  <si>
-    <t>2:36pm -3:30pm  30/01/2021</t>
-  </si>
-  <si>
-    <t>Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
-  </si>
-  <si>
-    <t>5pm - 6pm 8/2/2021</t>
-  </si>
-  <si>
-    <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
-  </si>
-  <si>
-    <t>4pm - 7.30pm 10/2/2021</t>
+    <t>Yarra Trams - No. 11</t>
+  </si>
+  <si>
+    <t>7:55am - 8:10am  11/2/2021</t>
+  </si>
+  <si>
+    <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
+  </si>
+  <si>
+    <t>Yarra Trams - No. 58</t>
+  </si>
+  <si>
+    <t>8:10am - 8:25am  11/2/2021</t>
+  </si>
+  <si>
+    <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
+  </si>
+  <si>
+    <t>9:40am - 9:55am  11/2/2021</t>
+  </si>
+  <si>
+    <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
   </si>
 </sst>
 </file>
@@ -477,18 +447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,16 +501,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -548,16 +518,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -565,87 +535,20 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE6541-931E-4E83-8098-283B3A8FE218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED97C55-E90B-4881-B2EB-0EAB0F372BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Location</t>
   </si>
@@ -48,43 +37,49 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
-  </si>
-  <si>
-    <t>8:25am - 10:10am  11/2/2021</t>
-  </si>
-  <si>
-    <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Yarra Trams - No. 11</t>
-  </si>
-  <si>
-    <t>7:55am - 8:10am  11/2/2021</t>
-  </si>
-  <si>
-    <t>Case used tram no. 11  Start: D16- Harbour Esplanade/ Collins Street  Finish: William Street/ Collins Street #3</t>
-  </si>
-  <si>
-    <t>Yarra Trams - No. 58</t>
-  </si>
-  <si>
-    <t>8:10am - 8:25am  11/2/2021</t>
-  </si>
-  <si>
-    <t>Case used tram no. 58  Start: Bourke Street/ William Street #5  Finish: Queen Victoria Market/ Peel Street #9</t>
-  </si>
-  <si>
-    <t>9:40am - 9:55am  11/2/2021</t>
-  </si>
-  <si>
-    <t>Case used tram no. 58  Start: Queen Victoria Market/Peel Street #9  Finish: Bourke Street/ William Street #5</t>
+    <t>Brandon Park</t>
+  </si>
+  <si>
+    <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park VIC 3170</t>
+  </si>
+  <si>
+    <t>4:35pm - 5:10pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>North Point Cafe  2B North Rd  Brighton, VIC 3186</t>
+  </si>
+  <si>
+    <t>8:10am - 9:30am  31/1/2021</t>
+  </si>
+  <si>
+    <t>Case dined outside and used bathroom</t>
+  </si>
+  <si>
+    <t>Keysborough</t>
+  </si>
+  <si>
+    <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
+  </si>
+  <si>
+    <t>4:00pm - 5:00pm  31/1/2021</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>5:00pm - 6:00pm  31/1/2021</t>
   </si>
 </sst>
 </file>
@@ -103,6 +98,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -450,15 +446,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="103" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,16 +494,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -515,16 +511,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -532,16 +528,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -549,6 +545,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED97C55-E90B-4881-B2EB-0EAB0F372BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090EA05F-0510-40C6-BEBC-482FEA1FD715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Location</t>
   </si>
@@ -37,49 +37,109 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Brandon Park</t>
-  </si>
-  <si>
-    <t>Kmart, Brandon Park Shopping Centre  Cnr Springvale Rd and Ferntree Gully Rd  Brandon Park VIC 3170</t>
-  </si>
-  <si>
-    <t>4:35pm - 5:10pm  31/1/2021</t>
+    <t>Broadmeadows</t>
+  </si>
+  <si>
+    <t>BonBon Bakery  Shop G134, Broadmeadows Central  1099/1168 Pascoe Vale Road  Broadmeadows VIC 3047</t>
+  </si>
+  <si>
+    <t>12:30pm - 12:45pm 9/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Craigieburn Line train</t>
+  </si>
+  <si>
+    <t>1.25pm - 1.59pm  9/02/2021</t>
+  </si>
+  <si>
+    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>North Point Cafe  2B North Rd  Brighton, VIC 3186</t>
-  </si>
-  <si>
-    <t>8:10am - 9:30am  31/1/2021</t>
-  </si>
-  <si>
-    <t>Case dined outside and used bathroom</t>
-  </si>
-  <si>
-    <t>Keysborough</t>
-  </si>
-  <si>
-    <t>Kmart, Parkmore Keysborough Shopping Centre  C/317 Cheltenham Rd  Keysborough VIC 3173</t>
-  </si>
-  <si>
-    <t>4:00pm - 5:00pm  31/1/2021</t>
-  </si>
-  <si>
-    <t>Springvale</t>
-  </si>
-  <si>
-    <t>Coles Springvale  825 Dandenong Rd  Springvale VIC 3171</t>
-  </si>
-  <si>
-    <t>5:00pm - 6:00pm  31/1/2021</t>
+    <t>1:25pm - 1:59pm  9/02/2021</t>
+  </si>
+  <si>
+    <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
+  </si>
+  <si>
+    <t>Woolworths  Broadmeadows Central  Pascoe Vale Road  Broadmeadows VIC 3047</t>
+  </si>
+  <si>
+    <t>12:15pm - 12:30 pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
+  </si>
+  <si>
+    <t>12.15pm - 12:30 pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>Glen Waverley</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank  28-32 Kingsway  Glen Waverley VIC 3015</t>
+  </si>
+  <si>
+    <t>1:30pm-2:30pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
+  </si>
+  <si>
+    <t>HSBC Bank,  38 Kingsway  Glen Waverley VIC 3015</t>
+  </si>
+  <si>
+    <t>2:15pm-3:30pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
+  </si>
+  <si>
+    <t>Glenroy</t>
+  </si>
+  <si>
+    <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
+  </si>
+  <si>
+    <t>1.35pm  2.17pm  9/02/2021</t>
+  </si>
+  <si>
+    <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
+  </si>
+  <si>
+    <t>1:35pm  2:17pm  9/02/2021</t>
+  </si>
+  <si>
+    <t>Hoppers Crossing</t>
+  </si>
+  <si>
+    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
+  </si>
+  <si>
+    <t>6.45am - 7.30am  8/02/21</t>
+  </si>
+  <si>
+    <t>6:45am - 7:30am  8/02/21</t>
+  </si>
+  <si>
+    <t>Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
+  </si>
+  <si>
+    <t>4pm - 7.30pm 10/2/2021</t>
+  </si>
+  <si>
+    <t>4pm - 7:30pm 10/2/2021</t>
   </si>
 </sst>
 </file>
@@ -443,18 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,33 +552,33 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -528,18 +586,222 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090EA05F-0510-40C6-BEBC-482FEA1FD715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D357EBF-5623-4117-AECF-E606C138AED8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>Location</t>
   </si>
@@ -40,67 +40,55 @@
     <t>Broadmeadows</t>
   </si>
   <si>
-    <t>BonBon Bakery  Shop G134, Broadmeadows Central  1099/1168 Pascoe Vale Road  Broadmeadows VIC 3047</t>
-  </si>
-  <si>
-    <t>12:30pm - 12:45pm 9/2/2021</t>
+    <t>Craigieburn Line train</t>
+  </si>
+  <si>
+    <t>1:25pm - 1:59pm  9/02/2021</t>
+  </si>
+  <si>
+    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>1:25pm - 1:59pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Sacca's Fruit World  Broadmeadows Central  Broadmeadows VIC 3047</t>
+  </si>
+  <si>
+    <t>12:30pm - 1:00pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
+  </si>
+  <si>
+    <t>Woolworths  Broadmeadows Central  Pascoe Vale Road  Broadmeadows VIC 3047</t>
+  </si>
+  <si>
+    <t>12:15pm - 12:30 pm 9/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Craigieburn Line train</t>
-  </si>
-  <si>
-    <t>1.25pm - 1.59pm  9/02/2021</t>
-  </si>
-  <si>
-    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>1:25pm - 1:59pm  9/02/2021</t>
-  </si>
-  <si>
-    <t>Ferguson Plarre Bakehouses - Broadmeadows, 1099-1169 Pascoe Vale Road</t>
-  </si>
-  <si>
-    <t>Woolworths  Broadmeadows Central  Pascoe Vale Road  Broadmeadows VIC 3047</t>
-  </si>
-  <si>
-    <t>12:15pm - 12:30 pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Woolworths Broadmeadows Central, Pascoe Vale Road</t>
-  </si>
-  <si>
-    <t>12.15pm - 12:30 pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Glen Waverley</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank  28-32 Kingsway  Glen Waverley VIC 3015</t>
-  </si>
-  <si>
-    <t>1:30pm-2:30pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Commonwealth Bank, 28-32 Kingsway  Glen Waverley VIC 3015</t>
-  </si>
-  <si>
-    <t>HSBC Bank,  38 Kingsway  Glen Waverley VIC 3015</t>
-  </si>
-  <si>
-    <t>2:15pm-3:30pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>HSBC Bank, 38 Kingsway  Glen Waverley VIC 3015</t>
+    <t>12:15pm - 12:30pm 9/2/2021</t>
+  </si>
+  <si>
+    <t>Coburg</t>
+  </si>
+  <si>
+    <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
+  </si>
+  <si>
+    <t>7:14pm  11:30pm  6/02/2021</t>
+  </si>
+  <si>
+    <t>7:14pm  11:30pm  6/2/2021</t>
   </si>
   <si>
     <t>Glenroy</t>
@@ -109,13 +97,25 @@
     <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
   </si>
   <si>
-    <t>1.35pm  2.17pm  9/02/2021</t>
+    <t>1:35pm  2:17pm  9/02/2021</t>
   </si>
   <si>
     <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
   </si>
   <si>
-    <t>1:35pm  2:17pm  9/02/2021</t>
+    <t>1:35pm  2:17pm  9/2/2021</t>
+  </si>
+  <si>
+    <t>Heatherton</t>
+  </si>
+  <si>
+    <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton VIC 3202</t>
+  </si>
+  <si>
+    <t>5:19pm - 6:35pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
   </si>
   <si>
     <t>Hoppers Crossing</t>
@@ -124,22 +124,25 @@
     <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
   </si>
   <si>
-    <t>6.45am - 7.30am  8/02/21</t>
-  </si>
-  <si>
     <t>6:45am - 7:30am  8/02/21</t>
   </si>
   <si>
-    <t>Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Oak Park Sports and Aquatic Centre, 563a Pascoe Vale Road</t>
-  </si>
-  <si>
-    <t>4pm - 7.30pm 10/2/2021</t>
-  </si>
-  <si>
-    <t>4pm - 7:30pm 10/2/2021</t>
+    <t>6:45am - 7:30am  8/2/21</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>8:25am - 10:10am  11/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
+  </si>
+  <si>
+    <t>Case attended sheds A and B (also known as section 2) - Fruit and Vegetables, and used female toilets adjacent to shed A.  See a map of the Queen Victoria Market (PDF)</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -503,16 +505,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.86328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="135.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -555,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -572,16 +576,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -592,13 +596,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -606,132 +610,132 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -745,27 +749,27 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -782,27 +786,10 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_0_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D357EBF-5623-4117-AECF-E606C138AED8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2AE95C-1D1E-4FB9-B679-EE31655122B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Location</t>
   </si>
@@ -37,112 +37,73 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Broadmeadows</t>
-  </si>
-  <si>
-    <t>Craigieburn Line train</t>
-  </si>
-  <si>
-    <t>1:25pm - 1:59pm  9/02/2021</t>
-  </si>
-  <si>
-    <t>Case caught train from Broadmeadows Railway Station to Glenroy Railway Station</t>
+    <t>Clayton South</t>
+  </si>
+  <si>
+    <t>Nakama Workshop  85 Main Rd  Clayton South VIC 3169</t>
+  </si>
+  <si>
+    <t>11:15am - 12:00pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>1:25pm - 1:59pm  9/2/2021</t>
+    <t>Heatherton</t>
+  </si>
+  <si>
+    <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton VIC 3202</t>
+  </si>
+  <si>
+    <t>5:19pm - 6:35pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Moorabbin Airport</t>
+  </si>
+  <si>
+    <t>Lululemon, DFO Moorabbin  Shop G-039/250 Centre Dandenong Rd  Moorabbin VIC 3194</t>
+  </si>
+  <si>
+    <t>5:00pm - 5:45pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
+  </si>
+  <si>
+    <t>5pm - 5:30pm 8/2/2021</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Sacca's Fruit World  Broadmeadows Central  Broadmeadows VIC 3047</t>
-  </si>
-  <si>
-    <t>12:30pm - 1:00pm  9/2/2021</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>Woolworths  Broadmeadows Central  Pascoe Vale Road  Broadmeadows VIC 3047</t>
-  </si>
-  <si>
-    <t>12:15pm - 12:30 pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>12:15pm - 12:30pm 9/2/2021</t>
-  </si>
-  <si>
-    <t>Coburg</t>
-  </si>
-  <si>
-    <t>Function venue  426 Sydney Rd  Coburg VIC 3058</t>
-  </si>
-  <si>
-    <t>7:14pm  11:30pm  6/02/2021</t>
-  </si>
-  <si>
-    <t>7:14pm  11:30pm  6/2/2021</t>
-  </si>
-  <si>
-    <t>Glenroy</t>
-  </si>
-  <si>
-    <t>513 Eltham to Glenroy bus route  Glenroy Railway Station towards Eltham</t>
-  </si>
-  <si>
-    <t>1:35pm  2:17pm  9/02/2021</t>
-  </si>
-  <si>
-    <t>Case caught bus from Glenroy Railway Station towards Eltham</t>
-  </si>
-  <si>
-    <t>1:35pm  2:17pm  9/2/2021</t>
-  </si>
-  <si>
-    <t>Heatherton</t>
-  </si>
-  <si>
-    <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton VIC 3202</t>
-  </si>
-  <si>
-    <t>5:19pm - 6:35pm  1/2/2021</t>
-  </si>
-  <si>
-    <t>Melbourne Golf Academy  385 Centre Dandenong Rd  Heatherton, VIC 3202</t>
-  </si>
-  <si>
-    <t>Hoppers Crossing</t>
-  </si>
-  <si>
-    <t>Coates Hire Werribee  148A Geelong Rd  Hoppers Crossing VIC 3029</t>
-  </si>
-  <si>
-    <t>6:45am - 7:30am  8/02/21</t>
-  </si>
-  <si>
-    <t>6:45am - 7:30am  8/2/21</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Queen Victoria Market  Queen Street  Melbourne VIC 3000</t>
-  </si>
-  <si>
-    <t>8:25am - 10:10am  11/2/2021</t>
-  </si>
-  <si>
-    <t>Case attended Section 2 - Fruit and Vegetables, and used Section 2 female toilets. See a map of the Queen Victoria Market (PDF)</t>
-  </si>
-  <si>
-    <t>Case attended sheds A and B (also known as section 2) - Fruit and Vegetables, and used female toilets adjacent to shed A.  See a map of the Queen Victoria Market (PDF)</t>
+    <t>5pm - 6pm 8/2/2021</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>Bunnings Springvale  849 Princes Hwy  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>11:30am - 12:15pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Sharetea Springvale  27C Buckingham Ave  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>6:50pm - 7:30pm  1/2/2021</t>
+  </si>
+  <si>
+    <t>Woolworths Springvale  302 Springvale Rd  Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>6:30pm - 7:30pm  1/2/2021</t>
   </si>
 </sst>
 </file>
@@ -505,18 +466,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="135.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,84 +517,84 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -641,155 +602,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
